--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Group 1001\atUIPath_Group1001_printSolutiontestProject\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0DFD8F-0DB3-44D4-A509-46BD7F0A86E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85694BCF-8ECB-4D4E-B858-C36D9A2CFF80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Testcases" sheetId="1" r:id="rId1"/>
@@ -27,15 +27,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="110">
   <si>
     <t>Module</t>
   </si>
   <si>
-    <t>TestCases</t>
-  </si>
-  <si>
-    <t>TestCase_Name</t>
+    <t>ControlFile</t>
+  </si>
+  <si>
+    <t>Test_File</t>
   </si>
   <si>
     <t>Execution Time</t>
@@ -44,56 +44,335 @@
     <t>Result</t>
   </si>
   <si>
+    <t>Product_Name</t>
+  </si>
+  <si>
+    <t>Test12</t>
+  </si>
+  <si>
+    <t>FL PS100024262-T</t>
+  </si>
+  <si>
+    <t>Prime Start</t>
+  </si>
+  <si>
+    <t>Test13</t>
+  </si>
+  <si>
+    <t>MI PS100050007-T</t>
+  </si>
+  <si>
+    <t>Test14</t>
+  </si>
+  <si>
+    <t>NJ PS100050006-T</t>
+  </si>
+  <si>
+    <t>Test15</t>
+  </si>
+  <si>
+    <t>AZ PS100050004-T</t>
+  </si>
+  <si>
+    <t>Test16</t>
+  </si>
+  <si>
+    <t>IL PS100050000-T</t>
+  </si>
+  <si>
+    <t>Test17</t>
+  </si>
+  <si>
+    <t>CA PS100024255-T</t>
+  </si>
+  <si>
+    <t>Test18</t>
+  </si>
+  <si>
+    <t>KY PS100024276-T</t>
+  </si>
+  <si>
+    <t>Test19</t>
+  </si>
+  <si>
+    <t>MA PS100050002-T</t>
+  </si>
+  <si>
+    <t>Test20</t>
+  </si>
+  <si>
+    <t>MO PS100050009-T</t>
+  </si>
+  <si>
+    <t>Test21</t>
+  </si>
+  <si>
+    <t>OK PS100050008-T</t>
+  </si>
+  <si>
+    <t>Test22</t>
+  </si>
+  <si>
+    <t>AR GP050052143-RC</t>
+  </si>
+  <si>
+    <t>Growth Pathways</t>
+  </si>
+  <si>
+    <t>Test23</t>
+  </si>
+  <si>
+    <t>CA GP050052178-RC</t>
+  </si>
+  <si>
+    <t>Test24</t>
+  </si>
+  <si>
+    <t>FL GP050052185-RC</t>
+  </si>
+  <si>
+    <t>Test25</t>
+  </si>
+  <si>
+    <t>GA GP050052192-RC</t>
+  </si>
+  <si>
+    <t>Test26</t>
+  </si>
+  <si>
+    <t>KY GP050052199-RC</t>
+  </si>
+  <si>
+    <t>Test27</t>
+  </si>
+  <si>
+    <t>LA GP070039200-RC</t>
+  </si>
+  <si>
+    <t>Test28</t>
+  </si>
+  <si>
+    <t>ND GP070039228-RC</t>
+  </si>
+  <si>
+    <t>Test29</t>
+  </si>
+  <si>
+    <t>SC GP070039242-RC</t>
+  </si>
+  <si>
+    <t>Test30</t>
+  </si>
+  <si>
+    <t>SD GP070039249-RC</t>
+  </si>
+  <si>
     <t>Test</t>
   </si>
   <si>
-    <t>FL PS100024262-T</t>
-  </si>
-  <si>
-    <t>MI PS100050007-T</t>
-  </si>
-  <si>
-    <t>NJ PS100050006-T</t>
-  </si>
-  <si>
-    <t>AZ PS100050004-T</t>
-  </si>
-  <si>
-    <t>IL PS100050000-T</t>
-  </si>
-  <si>
-    <t>ghjh</t>
-  </si>
-  <si>
-    <t>CA PS100024255-T</t>
-  </si>
-  <si>
-    <t>KY PS100024276-T</t>
-  </si>
-  <si>
-    <t>MA PS100050002-T</t>
-  </si>
-  <si>
-    <t>MO PS100050009-T</t>
-  </si>
-  <si>
-    <t>OK PS100050008-T</t>
+    <t>TX GP070039256-RC</t>
+  </si>
+  <si>
+    <t>NC PPMY0033299-RC</t>
+  </si>
+  <si>
+    <t>Pinnacle</t>
+  </si>
+  <si>
+    <t>Testhj</t>
+  </si>
+  <si>
+    <t>NE PPMY0033131-RC</t>
+  </si>
+  <si>
+    <t>ND-PPMY0029022-RC</t>
+  </si>
+  <si>
+    <t>ND PPMY0029022-RC</t>
+  </si>
+  <si>
+    <t>IA PPMY0033152-RC</t>
+  </si>
+  <si>
+    <t>ID PPMY0033180-RC</t>
+  </si>
+  <si>
+    <t>IL PPMY0033187-RC</t>
+  </si>
+  <si>
+    <t>IN PPMY0033271-RC</t>
+  </si>
+  <si>
+    <t>KY-PPMY0029008-RC</t>
+  </si>
+  <si>
+    <t>KY PPMY0029008-RC</t>
+  </si>
+  <si>
+    <t>KS PPMY0033243-RC</t>
+  </si>
+  <si>
+    <t>LA-PPMY0029015-RC</t>
+  </si>
+  <si>
+    <t>LA PPMY0029015-RC</t>
+  </si>
+  <si>
+    <t>MA PPMY0033208-RC</t>
+  </si>
+  <si>
+    <t>MD PPMY0033257-RC</t>
+  </si>
+  <si>
+    <t>ME PPMY0033278-RC</t>
+  </si>
+  <si>
+    <t>RI PPMY0033334-RC</t>
+  </si>
+  <si>
+    <t>SC-PPMY0029029-RC</t>
+  </si>
+  <si>
+    <t>SC PPMY0029029-RC</t>
+  </si>
+  <si>
+    <t>SD-PPMY0029036-RC</t>
+  </si>
+  <si>
+    <t>SD PPMY0029036-RC</t>
+  </si>
+  <si>
+    <t>TN PPMY0033383-RC</t>
+  </si>
+  <si>
+    <t>TX-PPMY0029043-RC</t>
+  </si>
+  <si>
+    <t>TX PPMY0029043-RC</t>
+  </si>
+  <si>
+    <t>UT PPMY0033376-RC</t>
+  </si>
+  <si>
+    <t>VA PPMY0033194-RC</t>
+  </si>
+  <si>
+    <t>VT PPMY0033404-RC</t>
+  </si>
+  <si>
+    <t>WA PPMY0033138-RC</t>
+  </si>
+  <si>
+    <t>WV PPMY0033250-RC</t>
+  </si>
+  <si>
+    <t>WY PPMY0033292-RC</t>
+  </si>
+  <si>
+    <t>AK PPMY0033215-RC</t>
+  </si>
+  <si>
+    <t>AL PPMY0033222-RC</t>
+  </si>
+  <si>
+    <t>AR-PPMY0028959-RC</t>
+  </si>
+  <si>
+    <t>AR PPMY0028959-RC</t>
+  </si>
+  <si>
+    <t>AZ PPMY0033355-RC</t>
+  </si>
+  <si>
+    <t>CA-PPMY0028987-RC</t>
+  </si>
+  <si>
+    <t>CA PPMY0028987-RC</t>
+  </si>
+  <si>
+    <t>CO PPMY0033229-RC</t>
+  </si>
+  <si>
+    <t>CT PPMY0033313-RC</t>
+  </si>
+  <si>
+    <t>DC PPMY0033362-RC</t>
+  </si>
+  <si>
+    <t>DE PPMY0033390-RC</t>
+  </si>
+  <si>
+    <t>FL-PPMY0028994-RC</t>
+  </si>
+  <si>
+    <t>FL PPMY0028994-RC</t>
+  </si>
+  <si>
+    <t>GA-PPMY0029001-RC</t>
+  </si>
+  <si>
+    <t>GA PPMY0029001-RC</t>
+  </si>
+  <si>
+    <t>HI PPMY0033124-RC</t>
+  </si>
+  <si>
+    <t>MT PPMY0033397-RC</t>
+  </si>
+  <si>
+    <t>NM PPMY0033236-RC</t>
+  </si>
+  <si>
+    <t>NV PPMY0033285-RC</t>
+  </si>
+  <si>
+    <t>OH PPMY0033306-RC</t>
+  </si>
+  <si>
+    <t>OK PPMY0033173-RC</t>
+  </si>
+  <si>
+    <t>OR PPMY0033327-RC</t>
+  </si>
+  <si>
+    <t>PA PPMY0033341-RC</t>
+  </si>
+  <si>
+    <t>MI PPMY0033145-RC</t>
+  </si>
+  <si>
+    <t>MN PPMY0033320-RC</t>
+  </si>
+  <si>
+    <t>MO PPMY0033264-RC</t>
+  </si>
+  <si>
+    <t>MS PPMY0033369-RC</t>
+  </si>
+  <si>
+    <t>Flag status - disabled</t>
   </si>
   <si>
     <t>Fail</t>
   </si>
   <si>
-    <t>Flag status - disabled</t>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -119,9 +398,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,10 +684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -413,9 +695,11 @@
     <col min="1" max="1" width="15.6640625" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="40.44140625" customWidth="1"/>
+    <col min="4" max="5" width="9.109375" customWidth="1"/>
+    <col min="6" max="6" width="40.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -431,124 +715,956 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="F10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>26</v>
+      </c>
+      <c r="F11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" t="s">
+        <v>62</v>
+      </c>
+      <c r="F31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" t="s">
+        <v>65</v>
+      </c>
+      <c r="F34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" t="s">
+        <v>71</v>
+      </c>
+      <c r="F38" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" t="s">
+        <v>73</v>
+      </c>
+      <c r="F39" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" t="s">
+        <v>74</v>
+      </c>
+      <c r="F40" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" t="s">
+        <v>75</v>
+      </c>
+      <c r="F41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" t="s">
+        <v>76</v>
+      </c>
+      <c r="F42" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" t="s">
+        <v>77</v>
+      </c>
+      <c r="F43" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" t="s">
+        <v>78</v>
+      </c>
+      <c r="F44" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C45" t="s">
+        <v>79</v>
+      </c>
+      <c r="F45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F46" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F48" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F49" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>46</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F51" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>46</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F52" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>46</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F53" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>46</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F54" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>46</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F55" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>46</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F56" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>46</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F57" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>46</v>
+      </c>
+      <c r="B58" t="s">
+        <v>96</v>
+      </c>
+      <c r="C58" t="s">
+        <v>96</v>
+      </c>
+      <c r="F58" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>46</v>
+      </c>
+      <c r="B59" t="s">
+        <v>97</v>
+      </c>
+      <c r="C59" t="s">
+        <v>97</v>
+      </c>
+      <c r="F59" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>46</v>
+      </c>
+      <c r="B60" t="s">
+        <v>98</v>
+      </c>
+      <c r="C60" t="s">
+        <v>98</v>
+      </c>
+      <c r="F60" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>46</v>
+      </c>
+      <c r="B61" t="s">
+        <v>99</v>
+      </c>
+      <c r="C61" t="s">
+        <v>99</v>
+      </c>
+      <c r="F61" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>46</v>
+      </c>
+      <c r="B62" t="s">
+        <v>100</v>
+      </c>
+      <c r="C62" t="s">
+        <v>100</v>
+      </c>
+      <c r="F62" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>46</v>
+      </c>
+      <c r="B63" t="s">
+        <v>101</v>
+      </c>
+      <c r="C63" t="s">
+        <v>101</v>
+      </c>
+      <c r="F63" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>46</v>
+      </c>
+      <c r="B64" t="s">
+        <v>102</v>
+      </c>
+      <c r="C64" t="s">
+        <v>102</v>
+      </c>
+      <c r="F64" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>46</v>
+      </c>
+      <c r="B65" t="s">
+        <v>103</v>
+      </c>
+      <c r="C65" t="s">
+        <v>103</v>
+      </c>
+      <c r="F65" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>46</v>
+      </c>
+      <c r="B66" t="s">
+        <v>104</v>
+      </c>
+      <c r="C66" t="s">
+        <v>104</v>
+      </c>
+      <c r="F66" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>46</v>
+      </c>
+      <c r="B67" t="s">
+        <v>105</v>
+      </c>
+      <c r="C67" t="s">
+        <v>105</v>
+      </c>
+      <c r="F67" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>46</v>
+      </c>
+      <c r="B68" t="s">
+        <v>106</v>
+      </c>
+      <c r="C68" t="s">
+        <v>106</v>
+      </c>
+      <c r="F68" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB3F8B10-1545-4EB2-B8F0-EAE4036044D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A4:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -559,24 +1675,24 @@
   <sheetData>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -586,10 +1702,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -599,9 +1715,10 @@
     <col min="3" max="3" width="34.33203125" customWidth="1"/>
     <col min="4" max="4" width="9.109375" customWidth="1"/>
     <col min="5" max="5" width="33.88671875" customWidth="1"/>
+    <col min="6" max="6" width="30.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -617,27 +1734,21 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2.3494129537037002E-3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -645,147 +1756,1334 @@
       <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1">
-        <v>2.2011700092592601E-3</v>
+      <c r="D3" t="s">
+        <v>107</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2.8611957800925899E-3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1.7384207835648099E-3</v>
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>107</v>
       </c>
       <c r="E5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1">
-        <v>3.0744425405092599E-3</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2.28425925925926E-7</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="B8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
       <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1.03603009259259E-7</v>
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>107</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1.12846064814815E-7</v>
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>107</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1.12501157407407E-7</v>
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>107</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+      <c r="F10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="1">
-        <v>2.7108912037036999E-7</v>
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>107</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>107</v>
+      </c>
+      <c r="F11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" t="s">
+        <v>107</v>
+      </c>
+      <c r="F12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" t="s">
+        <v>107</v>
+      </c>
+      <c r="F15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
+        <v>107</v>
+      </c>
+      <c r="E16" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E17" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" t="s">
+        <v>107</v>
+      </c>
+      <c r="E18" t="s">
+        <v>107</v>
+      </c>
+      <c r="F18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" t="s">
+        <v>107</v>
+      </c>
+      <c r="F19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" t="s">
+        <v>107</v>
+      </c>
+      <c r="F21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="1">
+        <v>8.1071479050925899E-4</v>
+      </c>
+      <c r="E22" t="s">
+        <v>108</v>
+      </c>
+      <c r="F22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="1">
+        <v>7.19032372685185E-4</v>
+      </c>
+      <c r="E23" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" t="s">
+        <v>107</v>
+      </c>
+      <c r="E24" t="s">
+        <v>107</v>
+      </c>
+      <c r="F24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" t="s">
+        <v>107</v>
+      </c>
+      <c r="E25" t="s">
+        <v>107</v>
+      </c>
+      <c r="F25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" t="s">
+        <v>107</v>
+      </c>
+      <c r="F26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" t="s">
+        <v>107</v>
+      </c>
+      <c r="F27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" t="s">
+        <v>107</v>
+      </c>
+      <c r="E28" t="s">
+        <v>107</v>
+      </c>
+      <c r="F28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" t="s">
+        <v>107</v>
+      </c>
+      <c r="E29" t="s">
+        <v>107</v>
+      </c>
+      <c r="F29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" t="s">
+        <v>107</v>
+      </c>
+      <c r="E30" t="s">
+        <v>107</v>
+      </c>
+      <c r="F30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" t="s">
+        <v>107</v>
+      </c>
+      <c r="E31" t="s">
+        <v>107</v>
+      </c>
+      <c r="F31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" t="s">
+        <v>107</v>
+      </c>
+      <c r="E32" t="s">
+        <v>107</v>
+      </c>
+      <c r="F32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" t="s">
+        <v>107</v>
+      </c>
+      <c r="E33" t="s">
+        <v>107</v>
+      </c>
+      <c r="F33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" t="s">
+        <v>107</v>
+      </c>
+      <c r="E34" t="s">
+        <v>107</v>
+      </c>
+      <c r="F34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" t="s">
+        <v>107</v>
+      </c>
+      <c r="E35" t="s">
+        <v>107</v>
+      </c>
+      <c r="F35" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" t="s">
+        <v>107</v>
+      </c>
+      <c r="E36" t="s">
+        <v>107</v>
+      </c>
+      <c r="F36" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" t="s">
+        <v>107</v>
+      </c>
+      <c r="E37" t="s">
+        <v>107</v>
+      </c>
+      <c r="F37" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" t="s">
+        <v>107</v>
+      </c>
+      <c r="E38" t="s">
+        <v>107</v>
+      </c>
+      <c r="F38" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" t="s">
+        <v>71</v>
+      </c>
+      <c r="D39" t="s">
+        <v>107</v>
+      </c>
+      <c r="E39" t="s">
+        <v>107</v>
+      </c>
+      <c r="F39" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40" t="s">
+        <v>107</v>
+      </c>
+      <c r="E40" t="s">
+        <v>107</v>
+      </c>
+      <c r="F40" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" t="s">
+        <v>74</v>
+      </c>
+      <c r="D41" t="s">
+        <v>107</v>
+      </c>
+      <c r="E41" t="s">
+        <v>107</v>
+      </c>
+      <c r="F41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42" t="s">
+        <v>75</v>
+      </c>
+      <c r="D42" t="s">
+        <v>107</v>
+      </c>
+      <c r="E42" t="s">
+        <v>107</v>
+      </c>
+      <c r="F42" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" t="s">
+        <v>76</v>
+      </c>
+      <c r="D43" t="s">
+        <v>107</v>
+      </c>
+      <c r="E43" t="s">
+        <v>107</v>
+      </c>
+      <c r="F43" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44" t="s">
+        <v>77</v>
+      </c>
+      <c r="D44" t="s">
+        <v>107</v>
+      </c>
+      <c r="E44" t="s">
+        <v>107</v>
+      </c>
+      <c r="F44" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" t="s">
+        <v>78</v>
+      </c>
+      <c r="D45" t="s">
+        <v>107</v>
+      </c>
+      <c r="E45" t="s">
+        <v>107</v>
+      </c>
+      <c r="F45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" t="s">
+        <v>79</v>
+      </c>
+      <c r="C46" t="s">
+        <v>79</v>
+      </c>
+      <c r="D46" t="s">
+        <v>107</v>
+      </c>
+      <c r="E46" t="s">
+        <v>107</v>
+      </c>
+      <c r="F46" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" t="s">
+        <v>80</v>
+      </c>
+      <c r="D47" t="s">
+        <v>107</v>
+      </c>
+      <c r="E47" t="s">
+        <v>107</v>
+      </c>
+      <c r="F47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" t="s">
+        <v>81</v>
+      </c>
+      <c r="C48" t="s">
+        <v>81</v>
+      </c>
+      <c r="D48" t="s">
+        <v>107</v>
+      </c>
+      <c r="E48" t="s">
+        <v>107</v>
+      </c>
+      <c r="F48" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" t="s">
+        <v>82</v>
+      </c>
+      <c r="C49" t="s">
+        <v>83</v>
+      </c>
+      <c r="D49" t="s">
+        <v>107</v>
+      </c>
+      <c r="E49" t="s">
+        <v>107</v>
+      </c>
+      <c r="F49" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" t="s">
+        <v>84</v>
+      </c>
+      <c r="C50" t="s">
+        <v>84</v>
+      </c>
+      <c r="D50" t="s">
+        <v>107</v>
+      </c>
+      <c r="E50" t="s">
+        <v>107</v>
+      </c>
+      <c r="F50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>85</v>
+      </c>
+      <c r="C51" t="s">
+        <v>86</v>
+      </c>
+      <c r="D51" t="s">
+        <v>107</v>
+      </c>
+      <c r="E51" t="s">
+        <v>107</v>
+      </c>
+      <c r="F51" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>87</v>
+      </c>
+      <c r="C52" t="s">
+        <v>87</v>
+      </c>
+      <c r="D52" t="s">
+        <v>107</v>
+      </c>
+      <c r="E52" t="s">
+        <v>107</v>
+      </c>
+      <c r="F52" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" t="s">
+        <v>88</v>
+      </c>
+      <c r="C53" t="s">
+        <v>88</v>
+      </c>
+      <c r="D53" t="s">
+        <v>107</v>
+      </c>
+      <c r="E53" t="s">
+        <v>107</v>
+      </c>
+      <c r="F53" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>50</v>
+      </c>
+      <c r="B54" t="s">
+        <v>89</v>
+      </c>
+      <c r="C54" t="s">
+        <v>89</v>
+      </c>
+      <c r="D54" t="s">
+        <v>107</v>
+      </c>
+      <c r="E54" t="s">
+        <v>107</v>
+      </c>
+      <c r="F54" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>50</v>
+      </c>
+      <c r="B55" t="s">
+        <v>90</v>
+      </c>
+      <c r="C55" t="s">
+        <v>90</v>
+      </c>
+      <c r="D55" t="s">
+        <v>107</v>
+      </c>
+      <c r="E55" t="s">
+        <v>107</v>
+      </c>
+      <c r="F55" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>50</v>
+      </c>
+      <c r="B56" t="s">
+        <v>91</v>
+      </c>
+      <c r="C56" t="s">
+        <v>92</v>
+      </c>
+      <c r="D56" t="s">
+        <v>107</v>
+      </c>
+      <c r="E56" t="s">
+        <v>107</v>
+      </c>
+      <c r="F56" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>50</v>
+      </c>
+      <c r="B57" t="s">
+        <v>93</v>
+      </c>
+      <c r="C57" t="s">
+        <v>94</v>
+      </c>
+      <c r="D57" t="s">
+        <v>107</v>
+      </c>
+      <c r="E57" t="s">
+        <v>107</v>
+      </c>
+      <c r="F57" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>50</v>
+      </c>
+      <c r="B58" t="s">
+        <v>95</v>
+      </c>
+      <c r="C58" t="s">
+        <v>95</v>
+      </c>
+      <c r="D58" t="s">
+        <v>107</v>
+      </c>
+      <c r="E58" t="s">
+        <v>107</v>
+      </c>
+      <c r="F58" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>50</v>
+      </c>
+      <c r="B59" t="s">
+        <v>96</v>
+      </c>
+      <c r="C59" t="s">
+        <v>96</v>
+      </c>
+      <c r="D59" t="s">
+        <v>107</v>
+      </c>
+      <c r="E59" t="s">
+        <v>107</v>
+      </c>
+      <c r="F59" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>50</v>
+      </c>
+      <c r="B60" t="s">
+        <v>97</v>
+      </c>
+      <c r="C60" t="s">
+        <v>97</v>
+      </c>
+      <c r="D60" t="s">
+        <v>107</v>
+      </c>
+      <c r="E60" t="s">
+        <v>107</v>
+      </c>
+      <c r="F60" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>50</v>
+      </c>
+      <c r="B61" t="s">
+        <v>98</v>
+      </c>
+      <c r="C61" t="s">
+        <v>98</v>
+      </c>
+      <c r="D61" t="s">
+        <v>107</v>
+      </c>
+      <c r="E61" t="s">
+        <v>107</v>
+      </c>
+      <c r="F61" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>50</v>
+      </c>
+      <c r="B62" t="s">
+        <v>99</v>
+      </c>
+      <c r="C62" t="s">
+        <v>99</v>
+      </c>
+      <c r="D62" t="s">
+        <v>107</v>
+      </c>
+      <c r="E62" t="s">
+        <v>107</v>
+      </c>
+      <c r="F62" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>50</v>
+      </c>
+      <c r="B63" t="s">
+        <v>100</v>
+      </c>
+      <c r="C63" t="s">
+        <v>100</v>
+      </c>
+      <c r="D63" t="s">
+        <v>107</v>
+      </c>
+      <c r="E63" t="s">
+        <v>107</v>
+      </c>
+      <c r="F63" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>50</v>
+      </c>
+      <c r="B64" t="s">
+        <v>101</v>
+      </c>
+      <c r="C64" t="s">
+        <v>101</v>
+      </c>
+      <c r="D64" t="s">
+        <v>107</v>
+      </c>
+      <c r="E64" t="s">
+        <v>107</v>
+      </c>
+      <c r="F64" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>50</v>
+      </c>
+      <c r="B65" t="s">
+        <v>102</v>
+      </c>
+      <c r="C65" t="s">
+        <v>102</v>
+      </c>
+      <c r="D65" t="s">
+        <v>107</v>
+      </c>
+      <c r="E65" t="s">
+        <v>107</v>
+      </c>
+      <c r="F65" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>50</v>
+      </c>
+      <c r="B66" t="s">
+        <v>103</v>
+      </c>
+      <c r="C66" t="s">
+        <v>103</v>
+      </c>
+      <c r="D66" t="s">
+        <v>107</v>
+      </c>
+      <c r="E66" t="s">
+        <v>107</v>
+      </c>
+      <c r="F66" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>50</v>
+      </c>
+      <c r="B67" t="s">
+        <v>104</v>
+      </c>
+      <c r="C67" t="s">
+        <v>104</v>
+      </c>
+      <c r="D67" t="s">
+        <v>107</v>
+      </c>
+      <c r="E67" t="s">
+        <v>107</v>
+      </c>
+      <c r="F67" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>50</v>
+      </c>
+      <c r="B68" t="s">
+        <v>105</v>
+      </c>
+      <c r="C68" t="s">
+        <v>105</v>
+      </c>
+      <c r="D68" t="s">
+        <v>107</v>
+      </c>
+      <c r="E68" t="s">
+        <v>107</v>
+      </c>
+      <c r="F68" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>50</v>
+      </c>
+      <c r="B69" t="s">
+        <v>106</v>
+      </c>
+      <c r="C69" t="s">
+        <v>106</v>
+      </c>
+      <c r="D69" t="s">
+        <v>107</v>
+      </c>
+      <c r="E69" t="s">
+        <v>107</v>
+      </c>
+      <c r="F69" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
